--- a/files/SM2/K3/K3-T1.xlsx
+++ b/files/SM2/K3/K3-T1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM2\K3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0651CD8-DFC5-47E7-9D6E-BDBE14696AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1007BD1-A2C3-4AE8-9045-86025C40C022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>to cool off</t>
   </si>
   <si>
-    <t>even though / for example</t>
-  </si>
-  <si>
     <t>to get cooler</t>
   </si>
   <si>
@@ -562,6 +559,10 @@
   </si>
   <si>
     <t>to light (subject and object in the sentence)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>even though</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +915,7 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScale="138" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1025,10 +1026,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
         <v>169</v>
-      </c>
-      <c r="B14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1325,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1341,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1389,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1405,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1413,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1421,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1429,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1437,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1445,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1453,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1461,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1469,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1477,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1485,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1493,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1501,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1509,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1517,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1525,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1533,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1541,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1549,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1557,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1565,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1581,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1589,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1605,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1613,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,15 +1621,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B89" t="s">
         <v>173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
